--- a/xlsx/伦敦_intext.xlsx
+++ b/xlsx/伦敦_intext.xlsx
@@ -29,7 +29,7 @@
     <t>伦敦 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_伦敦</t>
+    <t>体育运动_体育运动_国际奥林匹克委员会_伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E7%9C%BC</t>
